--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7024164F-48A3-7142-BA2B-1F3D90A75C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3D33DE17-0F81-C441-8D45-01985CD78E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,20 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
-  <si>
-    <t>Aktie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Stückzahl</t>
   </si>
   <si>
-    <t>Dividende_pro_Aktie</t>
-  </si>
-  <si>
-    <t>Zahlungen_pro_Jahr</t>
-  </si>
-  <si>
     <t>Monate</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>Isco FTSE 100</t>
+  </si>
+  <si>
+    <t>Dividende je Aktie</t>
+  </si>
+  <si>
+    <t>Zahlungen pro Jahr</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,24 +537,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -566,12 +566,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -583,12 +583,12 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -600,12 +600,12 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -634,12 +634,12 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -651,12 +651,12 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>333</v>
@@ -668,12 +668,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>422</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -702,12 +702,12 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -719,12 +719,12 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -736,12 +736,12 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -753,12 +753,12 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -770,12 +770,12 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>77</v>
@@ -804,12 +804,12 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -821,15 +821,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>60.314</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0.33</v>
@@ -838,12 +838,12 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -855,12 +855,12 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -872,12 +872,12 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -889,12 +889,12 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -906,12 +906,12 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -923,12 +923,12 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -940,12 +940,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -957,12 +957,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -974,12 +974,12 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -991,12 +991,12 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1008,12 +1008,12 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1025,12 +1025,12 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1042,12 +1042,12 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3D33DE17-0F81-C441-8D45-01985CD78E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3180A32A-919D-F14A-9657-3CBCAAF760CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Stückzahl</t>
   </si>
   <si>
-    <t>Monate</t>
-  </si>
-  <si>
     <t>Aktie_18</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Monat</t>
   </si>
 </sst>
 </file>
@@ -212,10 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +530,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,29 +538,29 @@
     <col min="1" max="1" width="16.6796875" customWidth="1"/>
     <col min="3" max="3" width="14.52734375" customWidth="1"/>
     <col min="4" max="4" width="13.046875" customWidth="1"/>
-    <col min="5" max="5" width="19.63671875" customWidth="1"/>
+    <col min="5" max="5" width="19.63671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -565,13 +571,13 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -582,13 +588,13 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -599,13 +605,13 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -616,13 +622,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -633,13 +639,13 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -650,13 +656,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>333</v>
@@ -667,13 +673,13 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>422</v>
@@ -684,13 +690,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -701,13 +707,13 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -718,13 +724,13 @@
       <c r="D11">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -735,13 +741,13 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -752,13 +758,13 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -769,13 +775,13 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -786,13 +792,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>77</v>
@@ -803,13 +809,13 @@
       <c r="D16">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -820,13 +826,13 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -837,13 +843,13 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -854,13 +860,13 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -871,13 +877,13 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
-        <v>15</v>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -888,13 +894,13 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -905,13 +911,13 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -922,13 +928,13 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
-        <v>15</v>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -939,13 +945,13 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -956,13 +962,13 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -973,13 +979,13 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
-        <v>15</v>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -990,13 +996,13 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>15</v>
+      <c r="E27" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1007,13 +1013,13 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>15</v>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1024,13 +1030,13 @@
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1041,13 +1047,13 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1058,8 +1064,8 @@
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>15</v>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3180A32A-919D-F14A-9657-3CBCAAF760CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4FE0C238-9356-1C43-A81A-025A164AC974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monat</t>
+    <t>Monate</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
